--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>血蓟</t>
   </si>
@@ -234,6 +234,15 @@
   <si>
     <t>一种非常寻常的草药</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>anshuijing</t>
+  </si>
+  <si>
+    <t>baibuliao</t>
+  </si>
+  <si>
+    <t>anzhijiao</t>
   </si>
 </sst>
 </file>
@@ -1015,68 +1024,6 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1450,6 +1397,68 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1532,28 +1541,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:P6" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:P6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A3:P6"/>
   <sortState ref="A4:P6">
     <sortCondition ref="A3:A6"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="17"/>
-    <tableColumn id="2" name="Name" dataDxfId="16"/>
+    <tableColumn id="1" name="Id" dataDxfId="11"/>
+    <tableColumn id="2" name="Name" dataDxfId="10"/>
     <tableColumn id="10" name="Ename"/>
     <tableColumn id="13" name="SubType"/>
-    <tableColumn id="4" name="Descript" dataDxfId="15"/>
-    <tableColumn id="5" name="Level" dataDxfId="14"/>
-    <tableColumn id="6" name="Rare" dataDxfId="13"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="12"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="11"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="10"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="9"/>
-    <tableColumn id="17" name="ShowCollectTip" dataDxfId="8"/>
+    <tableColumn id="4" name="Descript" dataDxfId="9"/>
+    <tableColumn id="5" name="Level" dataDxfId="8"/>
+    <tableColumn id="6" name="Rare" dataDxfId="7"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="6"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="5"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="4"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="3"/>
+    <tableColumn id="17" name="ShowCollectTip" dataDxfId="2"/>
     <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="7"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="1"/>
     <tableColumn id="9" name="Attributes"/>
-    <tableColumn id="14" name="Url" dataDxfId="6"/>
+    <tableColumn id="14" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1886,7 +1895,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2102,7 +2111,7 @@
         <v>38</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -2152,7 +2161,7 @@
         <v>40</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -2202,31 +2211,31 @@
         <v>39</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B4:P6">
-    <cfRule type="containsBlanks" dxfId="5" priority="25">
+    <cfRule type="containsBlanks" dxfId="20" priority="25">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
